--- a/input_data/admin_data/DOM/_clean/total-pos-DOM.xlsx
+++ b/input_data/admin_data/DOM/_clean/total-pos-DOM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17024" uniqueCount="15296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21632" uniqueCount="15296">
   <si>
     <t>year</t>
   </si>
